--- a/DaySale_2025-05-27_21-10.xlsx
+++ b/DaySale_2025-05-27_21-10.xlsx
@@ -167,6 +167,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>D DEP 1000 CAPS</t>
   </si>
   <si>
@@ -290,13 +299,19 @@
     <t>236.0000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
     <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
   </si>
   <si>
     <t>IRUXOL TOPICAL OINT. 15 GM</t>
@@ -1516,13 +1531,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1530,10 +1545,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1542,28 +1557,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>40</v>
@@ -1599,7 +1614,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1608,14 +1623,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,14 +1640,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1641,7 +1656,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1658,14 +1673,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1681,7 +1696,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>40</v>
@@ -1707,14 +1722,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1739,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1747,7 +1762,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1780,7 +1795,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1797,7 +1812,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1813,7 +1828,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1846,7 +1861,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1860,10 +1875,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1879,7 +1894,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1962,7 +1977,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1978,7 +1993,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2011,7 +2026,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2054,11 +2069,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2070,31 +2085,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,7 +2142,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2143,24 +2158,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,11 +2267,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2275,7 +2290,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2289,10 +2304,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2341,7 +2356,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2355,10 +2370,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,11 +2399,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>40</v>
@@ -2407,7 +2422,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,7 +2481,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2499,7 +2514,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2565,31 +2580,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,31 +2613,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,7 +2712,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2770,7 +2785,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2787,7 +2802,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2803,7 +2818,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2836,7 +2851,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,11 +2861,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,11 +2894,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2945,49 +2960,115 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2302.6999999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>178</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>180</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>33</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>155</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>28</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>33</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>90</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2375.6999999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>183</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>184</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>185</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3266,10 +3347,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
